--- a/Code/Exercises/Calculating DiD.xlsx
+++ b/Code/Exercises/Calculating DiD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Difference-in-Differences/Code/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDAD6A-E4BB-C04F-9D70-A846D8D1A234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7728CD60-CB65-2946-B87B-193B0241E460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="500" windowWidth="39020" windowHeight="22960" activeTab="1" xr2:uid="{5DF0A14E-7BBA-1B43-ACEC-B2B4E1FED3A6}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="30920" windowHeight="28300" activeTab="1" xr2:uid="{5DF0A14E-7BBA-1B43-ACEC-B2B4E1FED3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="DiD 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -76,6 +76,108 @@
   </si>
   <si>
     <t>Calculate means below</t>
+  </si>
+  <si>
+    <t>Note: this is saying that the treatment caused outcomes to rise for group 1 by 30 on average from 1986-1990.  It has nothing to do with 1980 to 1985.</t>
+  </si>
+  <si>
+    <t>ATT STUFF</t>
+  </si>
+  <si>
+    <t>DID STUFF</t>
+  </si>
+  <si>
+    <t>This is using the real data</t>
+  </si>
+  <si>
+    <t>This is not using the real data (Y1 and Y0, not Y)</t>
+  </si>
+  <si>
+    <t>Plotted pre-trend differences between the treated group and comparison group</t>
+  </si>
+  <si>
+    <t>Calculating parallel trends formula using only column D, Y0</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment: </t>
+  </si>
+  <si>
+    <t>Pretrends can be calculated; they use the orange rows of 1980-1985 for both groups (observed)</t>
+  </si>
+  <si>
+    <t>Parallel trends cannot be calculated; it uses the blue rows but only column D</t>
+  </si>
+  <si>
+    <t>Q.  Do we need for those green differences to be zero in order to have an unbiased</t>
+  </si>
+  <si>
+    <t>estimate of the ATT?</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>DiD on pre-trends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiD eq = </t>
+  </si>
+  <si>
+    <t>Facts</t>
+  </si>
+  <si>
+    <t>1. Did is not the same formula as ATT formula</t>
+  </si>
+  <si>
+    <t>2. Pre-trends formula is not the same formula as parallel trends formula</t>
+  </si>
+  <si>
+    <t>3. DiD eq equals ATT + PT bias</t>
+  </si>
+  <si>
+    <t>4. DiD is unbiased estimate of ATT if PT bias is zero</t>
+  </si>
+  <si>
+    <t>5. We do not need parallel pre-trends for PT bias to be zero</t>
+  </si>
+  <si>
+    <t>6. We can have parallel pre-trends and PT bias exist</t>
+  </si>
+  <si>
+    <t>In 1986, there is a divergence in Y0 trends for group 1 (even if the t</t>
+  </si>
+  <si>
+    <t>treatment hadn't happened).</t>
+  </si>
+  <si>
+    <t>This means that the treatment is endogenous</t>
+  </si>
+  <si>
+    <t>Endogeneity in this DiD world means this:</t>
+  </si>
+  <si>
+    <t>* Something happens in 1986, AND</t>
+  </si>
+  <si>
+    <t>* something happens to the treatment group, AND</t>
+  </si>
+  <si>
+    <t>* that something didn't happen to the comparison group, AND</t>
+  </si>
+  <si>
+    <t>* that something shifts potential outcome Y0</t>
+  </si>
+  <si>
+    <t>It's not just that "something is happening". Something</t>
+  </si>
+  <si>
+    <t>is happening to the treatment at that time that changes</t>
+  </si>
+  <si>
+    <t>y0.</t>
   </si>
 </sst>
 </file>
@@ -99,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +226,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -280,11 +400,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,6 +516,81 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,346 +905,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B18D84E-84AF-CE4E-85A8-897A086BEE78}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="10.83203125" style="13"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="I2">
         <v>1980</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7">
+      <c r="J2">
+        <v>1981</v>
+      </c>
+      <c r="K2">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1980</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38">
         <v>3.577712</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E3" s="7">
         <v>3.577712</v>
       </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="53">
+        <v>3.58</v>
+      </c>
+      <c r="J3" s="53">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K3" s="54">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>1981</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40">
         <v>4.5244429999999998</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E4" s="11">
         <v>4.5244429999999998</v>
       </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="56">
+        <v>3.59</v>
+      </c>
+      <c r="J4" s="56">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K4" s="57">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>1982</v>
       </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40">
         <v>5.5718319999999997</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E5" s="11">
         <v>5.5718319999999997</v>
       </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="H5" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="59">
+        <f>(J3-I3)-(J4-I4)</f>
+        <v>-3.0000000000000249E-2</v>
+      </c>
+      <c r="K5" s="60">
+        <f>(K3-J3)-(K4-J4)</f>
+        <v>2.0000000000000462E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>1983</v>
       </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40">
         <v>6.5310969999999999</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E6" s="11">
         <v>6.5310969999999999</v>
       </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>1984</v>
       </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11">
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40">
         <v>7.5666770000000003</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>7.5666770000000003</v>
       </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>1985</v>
       </c>
-      <c r="B7" s="15">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42">
         <v>8.5579839999999994</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E8" s="16">
         <v>8.5579839999999994</v>
       </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>1986</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="43">
         <v>19.554120000000001</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D9" s="21">
         <v>9.5556040000000007</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E9" s="20">
         <v>19.554120000000001</v>
       </c>
-      <c r="F8" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="F9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>1987</v>
       </c>
-      <c r="B9" s="19">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="43">
         <v>30.59122</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D10" s="23">
         <v>10.590809999999999</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E10" s="20">
         <v>30.59122</v>
       </c>
-      <c r="F9" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>1988</v>
       </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="43">
         <v>41.546419999999998</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D11" s="23">
         <v>11.526149999999999</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E11" s="20">
         <v>41.546419999999998</v>
       </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="H11" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>1989</v>
       </c>
-      <c r="B11" s="19">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20">
+      <c r="B12" s="19">
+        <v>1</v>
+      </c>
+      <c r="C12" s="43">
         <v>52.568399999999997</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D12" s="23">
         <v>12.575060000000001</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E12" s="20">
         <v>52.568399999999997</v>
       </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
         <v>1990</v>
       </c>
-      <c r="B12" s="25">
-        <v>1</v>
-      </c>
-      <c r="C12" s="26">
+      <c r="B13" s="25">
+        <v>1</v>
+      </c>
+      <c r="C13" s="44">
         <v>63.564300000000003</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D13" s="27">
         <v>13.558160000000001</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E13" s="26">
         <v>63.564300000000003</v>
       </c>
-      <c r="F12" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="F13" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>1980</v>
       </c>
-      <c r="B13" s="6">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38">
         <v>3.592012</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>3.592012</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>1981</v>
       </c>
-      <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11">
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40">
         <v>4.5633119999999998</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>4.5633119999999998</v>
       </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>1982</v>
       </c>
-      <c r="B15" s="10">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="B16" s="10">
+        <v>2</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40">
         <v>5.586697</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>5.586697</v>
       </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>1983</v>
-      </c>
-      <c r="B16" s="10">
-        <v>2</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11">
-        <v>6.5448399999999998</v>
-      </c>
-      <c r="E16" s="11">
-        <v>6.5448399999999998</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B17" s="10">
         <v>2</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11">
-        <v>7.5540529999999997</v>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40">
+        <v>6.5448399999999998</v>
       </c>
       <c r="E17" s="11">
-        <v>7.5540529999999997</v>
+        <v>6.5448399999999998</v>
       </c>
       <c r="F17" s="12">
         <v>0</v>
@@ -1036,192 +1305,292 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>1984</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40">
+        <v>7.5540529999999997</v>
+      </c>
+      <c r="E18" s="11">
+        <v>7.5540529999999997</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>1985</v>
       </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16">
+      <c r="B19" s="15">
+        <v>2</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42">
         <v>8.5767600000000002</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="16">
         <v>8.5767600000000002</v>
       </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
-        <v>1986</v>
-      </c>
-      <c r="B19" s="19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20">
-        <v>9.5811200000000003</v>
-      </c>
-      <c r="E19" s="20">
-        <v>9.5811200000000003</v>
-      </c>
-      <c r="F19" s="22">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B20" s="19">
         <v>2</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20">
-        <v>10.58384</v>
+      <c r="C20" s="43"/>
+      <c r="D20" s="45">
+        <v>9.5811200000000003</v>
       </c>
       <c r="E20" s="20">
-        <v>10.58384</v>
+        <v>9.5811200000000003</v>
       </c>
       <c r="F20" s="22">
         <v>0</v>
       </c>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B21" s="19">
         <v>2</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20">
-        <v>11.61825</v>
+      <c r="C21" s="43"/>
+      <c r="D21" s="45">
+        <v>10.58384</v>
       </c>
       <c r="E21" s="20">
-        <v>11.61825</v>
+        <v>10.58384</v>
       </c>
       <c r="F21" s="22">
         <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
+        <v>1988</v>
+      </c>
+      <c r="B22" s="19">
+        <v>2</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="45">
+        <v>11.61825</v>
+      </c>
+      <c r="E22" s="20">
+        <v>11.61825</v>
+      </c>
+      <c r="F22" s="22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
         <v>1989</v>
       </c>
-      <c r="B22" s="19">
-        <v>2</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20">
+      <c r="B23" s="19">
+        <v>2</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="45">
         <v>12.584899999999999</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E23" s="20">
         <v>12.584899999999999</v>
       </c>
-      <c r="F22" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="F23" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
         <v>1990</v>
       </c>
-      <c r="B23" s="25">
-        <v>2</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="B24" s="25">
+        <v>2</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="46">
         <v>13.575939999999999</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E24" s="26">
         <v>13.575939999999999</v>
       </c>
-      <c r="F23" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="F24" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C27" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-    </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="B28" s="31">
+        <f>AVERAGE(E3:E8)</f>
+        <v>6.0549574999999995</v>
+      </c>
+      <c r="C28" s="32">
+        <f>AVERAGE(E14:E19)</f>
+        <v>6.0696123333333345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="B29" s="33">
+        <f>AVERAGE(E9:E13)</f>
+        <v>41.564892</v>
+      </c>
+      <c r="C29" s="34">
+        <f>AVERAGE(E20:E24)</f>
+        <v>11.58881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="30"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="65">
+        <f>(B29-B28) - (C29-C28)</f>
+        <v>29.990736833333333</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="30"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
+      <c r="B33" s="67">
+        <f>AVERAGE(C9:C13) - AVERAGE(D9:D13)</f>
+        <v>30.003735200000001</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="47">
+        <f>AVERAGE(D3:D8)</f>
+        <v>6.0549574999999995</v>
+      </c>
+      <c r="C38" s="48">
+        <f>AVERAGE(D14:D19)</f>
+        <v>6.0696123333333345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="50">
+        <f>AVERAGE(D9:D13)</f>
+        <v>11.561156800000001</v>
+      </c>
+      <c r="C39" s="49">
+        <f>AVERAGE(D20:D24)</f>
+        <v>11.58881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="13">
+        <f>(B39-B38) - (C39-C38)</f>
+        <v>-1.2998366666664651E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E2A4ED-A78A-3B40-B0BF-43035DDA1862}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="10.83203125" style="13"/>
+    <col min="8" max="8" width="10.83203125" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1381,6 +1750,9 @@
       <c r="F8" s="22">
         <v>1</v>
       </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
@@ -1401,6 +1773,9 @@
       <c r="F9" s="22">
         <v>1</v>
       </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
@@ -1424,7 +1799,7 @@
       <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="72"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
@@ -1445,6 +1820,9 @@
       <c r="F11" s="22">
         <v>1</v>
       </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
@@ -1483,6 +1861,9 @@
       <c r="F13" s="8">
         <v>0</v>
       </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
@@ -1501,6 +1882,9 @@
       <c r="F14" s="12">
         <v>0</v>
       </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
@@ -1523,7 +1907,9 @@
         <v>6</v>
       </c>
       <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="J15" s="75" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
@@ -1542,9 +1928,11 @@
       <c r="F16" s="12">
         <v>0</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
@@ -1563,9 +1951,11 @@
       <c r="F17" s="12">
         <v>0</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
@@ -1595,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="20">
+      <c r="D19" s="68">
         <v>9.5811200000000003</v>
       </c>
       <c r="E19" s="20">
@@ -1605,6 +1995,9 @@
         <v>0</v>
       </c>
       <c r="I19" s="13"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
@@ -1614,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="20">
+      <c r="D20" s="69">
         <v>10.58384</v>
       </c>
       <c r="E20" s="20">
@@ -1622,6 +2015,9 @@
       </c>
       <c r="F20" s="22">
         <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1632,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="D21" s="20">
+      <c r="D21" s="69">
         <v>11.61825</v>
       </c>
       <c r="E21" s="20">
@@ -1643,6 +2039,9 @@
       </c>
       <c r="G21" t="s">
         <v>7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1653,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="20">
+      <c r="D22" s="69">
         <v>12.584899999999999</v>
       </c>
       <c r="E22" s="20">
@@ -1671,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="D23" s="70">
         <v>13.575939999999999</v>
       </c>
       <c r="E23" s="26">
@@ -1693,49 +2092,167 @@
       <c r="C26" s="30" t="s">
         <v>9</v>
       </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="31">
+        <f>AVERAGE(E2:E7)</f>
+        <v>6.0549574999999995</v>
+      </c>
+      <c r="C27" s="32">
+        <f>AVERAGE(E13:E18)</f>
+        <v>6.0696123333333345</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="33">
+        <f>AVERAGE(E8:E12)</f>
+        <v>41.564892</v>
+      </c>
+      <c r="C28" s="34">
+        <f>AVERAGE(E19:E23)</f>
+        <v>11.58881</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="30"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="B31" s="65">
+        <f>(B28-B27)-(C28-C27)</f>
+        <v>29.990736833333333</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="67">
+        <f>AVERAGE(C8:C12) - AVERAGE(D8:D12)</f>
+        <v>4.964891999999999</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="47">
+        <f>AVERAGE(D2:D7)</f>
+        <v>6.0549574999999995</v>
+      </c>
+      <c r="C37" s="48">
+        <f>AVERAGE(D13:D18)</f>
+        <v>6.0696123333333345</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="74">
+        <f>AVERAGE(D8:D12)</f>
+        <v>36.6</v>
+      </c>
+      <c r="C38" s="49">
+        <f>AVERAGE(D19:D23)</f>
+        <v>11.58881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="13">
+        <f>(B38-B37)-(C38-C37)</f>
+        <v>25.025844833333334</v>
+      </c>
+    </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
+      <c r="A41" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
+        <f>B31</f>
+        <v>29.990736833333333</v>
+      </c>
+      <c r="B42" s="13">
+        <f>B32</f>
+        <v>4.964891999999999</v>
+      </c>
+      <c r="C42" s="13">
+        <f>B39</f>
+        <v>25.025844833333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>29.99</v>
+      </c>
+      <c r="B43" s="13">
+        <f>SUM(B42:C42)</f>
+        <v>29.990736833333333</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
